--- a/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.975333638343728</v>
+        <v>0.024666361656272</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999996771058325</v>
+        <v>3.22894167503751e-06</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.225182529671104</v>
+        <v>0.774817470328896</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.817184103484891</v>
+        <v>0.182815896515109</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.116262958748522</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0052358102076747</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0153466386554622</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0019457250003853</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-2.71990140658428</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.026517887249413</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.914285714285714</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.128157894736842</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.232525275458998</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0155846086863253</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.76500312269346</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001428259381959</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.967532467532468</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.053674135577798</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.020531512461412</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.09420977196952229</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.59688587881105</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0648205971722995</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.038961038961039</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.766233766233766</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1472</v>
+      </c>
+      <c r="K31" t="n">
+        <v>41.6244936537942</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-5.68731923161836</v>
+      </c>
+      <c r="M31" t="n">
+        <v>103.03244719657</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.82775092756754</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.39185348778219e-06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0347222222222222</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.14016893880491</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.218203722275863</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.113898608660018</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.345590123768139</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10.1956307429502</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0242234110101043</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0011467817896389</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0001304307041207</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0020912005247737</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.58369309262167</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.44544591339067</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0003350344121081</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0035990455935539</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0031810903717674</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.155829959120065</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.940366661720291</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.583892617449664</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0114482509627728</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0258975753505227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.160339649338554</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7.75711159636702e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.470661255411255</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.266142351046546</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.740330703850089</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.086963151396141</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>6.27844579443049e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.478580527752502</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.214957049584143</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.74026174922725</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.9800263033559</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0003712682458085</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0862479406919275</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.038497630516938</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.147044337159171</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.97106286408804</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.238795172641488</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.902597402597403</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.222917302410742</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.318005724143234</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.674635104415314</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.0954167194631</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.635642403712075</v>
+        <v>0.39342269160041</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.933333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>0.17</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0133791208791209</v>
+        <v>-0.0134033891815731</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0258234585003261</v>
+        <v>-0.0552656519443393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0397172146627072</v>
+        <v>0.0274124840114104</v>
       </c>
       <c r="N2" t="n">
-        <v>7.87007110536521</v>
+        <v>-7.88434657739597</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.024666361656272</v>
+        <v>0.0016656423291889</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96078431372549</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.89</v>
+        <v>4.775</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.64156571774682</v>
+        <v>-1.12851328903654</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.23714211378882</v>
+        <v>-1.67336679269777</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.122323866104509</v>
+        <v>-0.508629078590447</v>
       </c>
       <c r="N3" t="n">
-        <v>-13.1199533281558</v>
+        <v>-23.6337861578334</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.961014150752487</v>
+        <v>0.928897529777129</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9803921568627449</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26</v>
+        <v>0.93</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.257218309859155</v>
+        <v>-0.160197368421053</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.579928830183553</v>
+        <v>-0.464677623532062</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0123714353230888</v>
+        <v>0.0148843799726505</v>
       </c>
       <c r="N4" t="n">
-        <v>-20.4141515761234</v>
+        <v>-17.2255234861347</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.999616203011345</v>
+        <v>0.999840460184043</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.803921568627451</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2700</v>
+        <v>1593.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-1009.46778711485</v>
+        <v>-683.772921108742</v>
       </c>
       <c r="L5" t="n">
-        <v>-1586.30451746584</v>
+        <v>-1167.71642870527</v>
       </c>
       <c r="M5" t="n">
-        <v>-466.132385495963</v>
+        <v>-337.095751525604</v>
       </c>
       <c r="N5" t="n">
-        <v>-37.3876958190684</v>
+        <v>-42.9101299723089</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.992962866121524</v>
+        <v>0.996367355108603</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75625879729032</v>
+        <v>2.30782388989393</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.8916628366616</v>
+        <v>-0.903706733115091</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.50666820733619</v>
+        <v>-1.77568419917728</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.393073895198489</v>
+        <v>-0.343948322516739</v>
       </c>
       <c r="N6" t="n">
-        <v>-23.7380565286083</v>
+        <v>-39.1583923310815</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.885452948585809</v>
+        <v>0.999948802507863</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H7" t="n">
-        <v>0.764705882352941</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0022523124357656</v>
+        <v>-0.0123983944954128</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0076947875163028</v>
+        <v>-0.0179157738439249</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0007783217028454</v>
+        <v>-0.0046737127355724</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.03847636176773</v>
+        <v>-51.6599770642202</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.27114731125073</v>
+        <v>0.927664931835717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.92156862745098</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.191</v>
+        <v>0.2185</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007708198051948</v>
+        <v>-0.0427799467613132</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0213002712059076</v>
+        <v>-0.08050352084459469</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0540251656126845</v>
+        <v>0.0026293201481946</v>
       </c>
       <c r="N8" t="n">
-        <v>4.03570578636024</v>
+        <v>-19.5789230028893</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.22894167503751e-06</v>
+        <v>1.28395055930541e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.76</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.23</v>
+        <v>7.1</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.142305194805195</v>
+        <v>-0.153914722572509</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.18161582866625</v>
+        <v>-0.20392709196216</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.102675885858357</v>
+        <v>-0.0997488588144094</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.96825995581182</v>
+        <v>-2.16781299397901</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.958908086607633</v>
+        <v>0.950268071490985</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.31</v>
+        <v>6.0285</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.35472804718218</v>
+        <v>-1.183</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.59693732807099</v>
+        <v>-2.66635253165665</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.184699417492046</v>
+        <v>-0.0488955870795169</v>
       </c>
       <c r="N10" t="n">
-        <v>-16.302383239256</v>
+        <v>-19.6234552542092</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.982353141017825</v>
+        <v>0.97661139615343</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.725490196078431</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>31</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>-3.8046875</v>
+        <v>-1.71085508241758</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.25246037965346</v>
+        <v>-3.80800200128079</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.876487647843057</v>
+        <v>-0.302591369361692</v>
       </c>
       <c r="N11" t="n">
-        <v>-12.273185483871</v>
+        <v>-20.4403235653236</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.982653096154272</v>
+        <v>0.897731728491463</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.96078431372549</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.4</v>
+        <v>1.765</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.00686813186813</v>
+        <v>-0.233837301587302</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.78019426517611</v>
+        <v>-0.687587324052629</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.55169450682212</v>
+        <v>0.0602633952928627</v>
       </c>
       <c r="N12" t="n">
-        <v>-17.6041064198959</v>
+        <v>-13.2485723278924</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.87561743844569</v>
+        <v>0.998572198815205</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.45</v>
+        <v>20.55</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.233837301587302</v>
+        <v>-4.45889610389611</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.638887898088999</v>
+        <v>-7.43653076417972</v>
       </c>
       <c r="M13" t="n">
-        <v>0.088793705507168</v>
+        <v>-2.00947660374248</v>
       </c>
       <c r="N13" t="n">
-        <v>-9.54437965662455</v>
+        <v>-21.6977912598351</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.987777912266266</v>
+        <v>0.479110657809479</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>0.17</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.93917269439421</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.61937764390945</v>
+        <v>-0.0105363172474303</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7087725728037469</v>
+        <v>0.0111100032035715</v>
       </c>
       <c r="N14" t="n">
-        <v>-13.9960604494963</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.239250468574643</v>
+        <v>0.513183822729284</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.707317073170732</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.185</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0043978167640148</v>
+        <v>0.001991548527808</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0164274207755129</v>
+        <v>-0.188591797538703</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0076995866690551</v>
+        <v>0.224882868689678</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.37719825081882</v>
+        <v>0.0470815254800952</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.774817470328896</v>
+        <v>0.999533705569995</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.932038834951456</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.22</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0451545329670329</v>
+        <v>-0.112096548188653</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0654481763465382</v>
+        <v>-0.204488276909306</v>
       </c>
       <c r="M16" t="n">
-        <v>0.224651270135927</v>
+        <v>-0.0465850000485826</v>
       </c>
       <c r="N16" t="n">
-        <v>1.07001262955054</v>
+        <v>-7.78448251310093</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.99634952254429</v>
+        <v>0.730514735038573</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0471698113207547</v>
       </c>
       <c r="H17" t="n">
-        <v>0.972972972972973</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.78</v>
+        <v>1700</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0913125</v>
+        <v>-32.8396603396603</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.156876032101437</v>
+        <v>-147.216542861606</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0222271091463528</v>
+        <v>46.8950899719353</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.12991573033708</v>
+        <v>-1.93174472586237</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.104453455103515</v>
+        <v>0.868754601578011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.045045045045045</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.720720720720721</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1700</v>
+        <v>3.59903974996676</v>
       </c>
       <c r="K18" t="n">
-        <v>57.3390894819466</v>
+        <v>-0.136694589857849</v>
       </c>
       <c r="L18" t="n">
-        <v>-17.2536835112392</v>
+        <v>-0.326209563315574</v>
       </c>
       <c r="M18" t="n">
-        <v>181.088642380076</v>
+        <v>0.0517273215282717</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3728876165851</v>
+        <v>-3.79808502696063</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.999945583594478</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0188679245283019</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.707604733608551</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>4.18170448701682</v>
+        <v>0.034</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0631655746615775</v>
+        <v>-0.0036403654485049</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.252659821941247</v>
+        <v>-0.0060672757475083</v>
       </c>
       <c r="M19" t="n">
-        <v>0.100988109537674</v>
+        <v>-0.0019986421569668</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.51052220111898</v>
+        <v>-10.7069572014852</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.990499258395012</v>
+        <v>0.948385405141955</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009009009009009</v>
+        <v>0.0471698113207547</v>
       </c>
       <c r="H20" t="n">
-        <v>0.666666666666667</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.034</v>
+        <v>0.2055</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.002534991324465</v>
+        <v>-0.0079661941112322</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0050182440603286</v>
+        <v>-0.0188718530143349</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0005758631284957</v>
+        <v>-2.2705315799762e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>-7.45585683666179</v>
+        <v>-3.87649348478457</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.744829958965385</v>
+        <v>0.135896944139625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.045045045045045</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.900900900900901</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.207</v>
+        <v>7.17</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0026659543325526</v>
+        <v>-0.0127264808362371</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0143862870455829</v>
+        <v>-0.0308713936869189</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0023180836558378</v>
+        <v>0.0059104898711586</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.28790064374526</v>
+        <v>-0.177496245972624</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.182815896515109</v>
+        <v>0.8856427444859371</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.663551401869159</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.19</v>
+        <v>8.484999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0106673481308412</v>
+        <v>-0.321098901098901</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0281329171281287</v>
+        <v>-0.863210636198801</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008192114435943899</v>
+        <v>0.123915291257107</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.148363673586108</v>
+        <v>-3.78431232880261</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.804059580108241</v>
+        <v>0.976487044756599</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.971698113207547</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.720000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.208714285714286</v>
+        <v>-0.631460418562329</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.6801220857321369</v>
+        <v>-1.24513564099938</v>
       </c>
       <c r="M23" t="n">
-        <v>0.185053017197909</v>
+        <v>-0.102123404656608</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.14726631393298</v>
+        <v>-5.21868114514322</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.725774089144552</v>
+        <v>0.9870197496969489</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.657657657657658</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>37</v>
+        <v>2.465</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.7525755494505491</v>
+        <v>-0.100935597189696</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.6696776613943</v>
+        <v>-0.193065685049775</v>
       </c>
       <c r="M24" t="n">
-        <v>0.764952838570285</v>
+        <v>-0.0386286513988284</v>
       </c>
       <c r="N24" t="n">
-        <v>-2.03398797148797</v>
+        <v>-4.0947503930911</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.895401541606491</v>
+        <v>0.955511539292767</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.972972972972973</v>
+        <v>0.933962264150943</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.2</v>
+        <v>21.8</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.364419131028207</v>
+        <v>-0.889095394736842</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.89999658557587</v>
+        <v>-1.89201080471918</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0521727519262591</v>
+        <v>-0.0251315888796423</v>
       </c>
       <c r="N25" t="n">
-        <v>-2.39749428308031</v>
+        <v>-4.07841924191212</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.931108779129292</v>
+        <v>0.122248428692207</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9819819819819821</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.65</v>
+        <v>0.19</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0751105550500455</v>
+        <v>-0.0048217821782178</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.149947931377416</v>
+        <v>-0.0137827556249263</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007425548979462</v>
+        <v>0.0019233859890609</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.83436056792624</v>
+        <v>-2.53778009379885</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.30372148508904</v>
+        <v>0.0046141587670289</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9459459459459461</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>23.1</v>
+        <v>4.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.211703034435731</v>
+        <v>-0.143825549450549</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.630640298412121</v>
+        <v>-0.258148580961149</v>
       </c>
       <c r="M27" t="n">
-        <v>0.980658549746125</v>
+        <v>-0.0527885193012608</v>
       </c>
       <c r="N27" t="n">
-        <v>0.916463352535633</v>
+        <v>-3.11986007484923</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.116262958748522</v>
+        <v>0.0042348502373221</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.645833333333333</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1925</v>
+        <v>0.908</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0052358102076747</v>
+        <v>0.0342108796444904</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0153466386554622</v>
+        <v>0.0120831886066139</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0019457250003853</v>
+        <v>0.0698384588120267</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.71990140658428</v>
+        <v>3.76771802252097</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.026517887249413</v>
+        <v>0.231512305123194</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0372670807453416</v>
       </c>
       <c r="H29" t="n">
-        <v>0.914285714285714</v>
+        <v>0.757763975155279</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>4.635</v>
+        <v>1400</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.128157894736842</v>
+        <v>13.7227187375548</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.232525275458998</v>
+        <v>-24.8408936863072</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0155846086863253</v>
+        <v>66.2290383192703</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.76500312269346</v>
+        <v>0.9801941955396311</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.10367125181354e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0397350993377483</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.966887417218543</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.001428259381959</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.967532467532468</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.959</v>
+        <v>2.00110628209031</v>
       </c>
       <c r="K30" t="n">
-        <v>0.053674135577798</v>
+        <v>0.149677064713728</v>
       </c>
       <c r="L30" t="n">
-        <v>0.020531512461412</v>
+        <v>0.0808541612099999</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09420977196952229</v>
+        <v>0.244907319560657</v>
       </c>
       <c r="N30" t="n">
-        <v>5.59688587881105</v>
+        <v>7.4797158978172</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0648205971722995</v>
+        <v>0.240389977823795</v>
       </c>
       <c r="G31" t="n">
-        <v>0.038961038961039</v>
+        <v>0.07947019867549671</v>
       </c>
       <c r="H31" t="n">
-        <v>0.766233766233766</v>
+        <v>0.529801324503311</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1472</v>
+        <v>0.027</v>
       </c>
       <c r="K31" t="n">
-        <v>41.6244936537942</v>
+        <v>0.0003432800751879</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.68731923161836</v>
+        <v>-0.000472069760482</v>
       </c>
       <c r="M31" t="n">
-        <v>103.03244719657</v>
+        <v>0.0012060710881749</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82775092756754</v>
+        <v>1.27140768588137</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.39185348778219e-06</v>
+        <v>0.7609508584185199</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0347222222222222</v>
+        <v>0.0860927152317881</v>
       </c>
       <c r="H32" t="n">
-        <v>0.972222222222222</v>
+        <v>0.8344370860927151</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.14016893880491</v>
+        <v>0.217</v>
       </c>
       <c r="K32" t="n">
-        <v>0.218203722275863</v>
+        <v>-0.0014717032967033</v>
       </c>
       <c r="L32" t="n">
-        <v>0.113898608660018</v>
+        <v>-0.0060326715461526</v>
       </c>
       <c r="M32" t="n">
-        <v>0.345590123768139</v>
+        <v>0.0015024645940071</v>
       </c>
       <c r="N32" t="n">
-        <v>10.1956307429502</v>
+        <v>-0.678204284195068</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0242234110101043</v>
+        <v>0.8495582399278681</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0763888888888889</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.555555555555556</v>
+        <v>0.57051282051282</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.032</v>
+        <v>7.135</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0011467817896389</v>
+        <v>0.0069089342365765</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0001304307041207</v>
+        <v>-0.0042563356622148</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0020912005247737</v>
+        <v>0.018974025974026</v>
       </c>
       <c r="N33" t="n">
-        <v>3.58369309262167</v>
+        <v>0.0968315940655441</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.44544591339067</v>
+        <v>1.3995969491754e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0763888888888889</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.847222222222222</v>
+        <v>0.9937888198757761</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.215</v>
+        <v>5.47</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0003350344121081</v>
+        <v>0.379252572037714</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0035990455935539</v>
+        <v>0.218351701814055</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0031810903717674</v>
+        <v>0.589792558915353</v>
       </c>
       <c r="N34" t="n">
-        <v>0.155829959120065</v>
+        <v>6.93331941568033</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.940366661720291</v>
+        <v>0.000621461270347</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.583892617449664</v>
+        <v>0.950310559006211</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.14</v>
+        <v>9.32</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0114482509627728</v>
+        <v>0.322292618539953</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.154009214478869</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0258975753505227</v>
+        <v>0.602060439560439</v>
       </c>
       <c r="N35" t="n">
-        <v>0.160339649338554</v>
+        <v>3.45807530622268</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7.75711159636702e-06</v>
+        <v>0.0013631269205919</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.82</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="n">
-        <v>0.470661255411255</v>
+        <v>0.0622191595222306</v>
       </c>
       <c r="L36" t="n">
-        <v>0.266142351046546</v>
+        <v>0.0313448255281886</v>
       </c>
       <c r="M36" t="n">
-        <v>0.740330703850089</v>
+        <v>0.112494279851844</v>
       </c>
       <c r="N36" t="n">
-        <v>8.086963151396141</v>
+        <v>3.63854734048132</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.27844579443049e-05</v>
+        <v>0.395517439415098</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.948051948051948</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>9.609999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="K37" t="n">
-        <v>0.478580527752502</v>
+        <v>0.113511075849438</v>
       </c>
       <c r="L37" t="n">
-        <v>0.214957049584143</v>
+        <v>-0.474992129503964</v>
       </c>
       <c r="M37" t="n">
-        <v>0.74026174922725</v>
+        <v>0.546048671603931</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9800263033559</v>
+        <v>0.55916786132728</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Piakatutu at d/s Sanson STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0003712682458085</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.974025974025974</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.735</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0862479406919275</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.038497630516938</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.147044337159171</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4.97106286408804</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1805181.656</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5545497.329</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Piakatutu at d/s Sanson STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.238795172641488</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.902597402597403</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.222917302410742</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.318005724143234</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.674635104415314</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.0954167194631</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1805181.656</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5545497.329</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/trend_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -127,43 +127,37 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -642,13 +636,13 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.39342269160041</v>
+        <v>0.674768438524643</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -657,23 +651,23 @@
         <v>0.17</v>
       </c>
       <c r="K2">
-        <v>-0.0134033891815731</v>
+        <v>0.0154789927059212</v>
       </c>
       <c r="L2">
-        <v>-0.0552656519443393</v>
+        <v>-0.0317000746614619</v>
       </c>
       <c r="M2">
-        <v>0.0274124840114104</v>
+        <v>0.0534697569863557</v>
       </c>
       <c r="N2">
-        <v>-7.88434657739597</v>
+        <v>9.10528982701249</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2">
         <v>1805181.656</v>
       </c>
@@ -681,19 +675,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
         <v>52</v>
-      </c>
-      <c r="V2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,37 +707,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.0016656423291889</v>
+        <v>0.0017752563584539</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.956521739130435</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.775</v>
+        <v>4.07</v>
       </c>
       <c r="K3">
-        <v>-1.12851328903654</v>
+        <v>-1.04916017526777</v>
       </c>
       <c r="L3">
-        <v>-1.67336679269777</v>
+        <v>-1.59869613615821</v>
       </c>
       <c r="M3">
-        <v>-0.508629078590447</v>
+        <v>-0.489048560623158</v>
       </c>
       <c r="N3">
-        <v>-23.6337861578334</v>
+        <v>-25.7778912842204</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3">
         <v>1805181.656</v>
@@ -752,19 +746,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,37 +778,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.928897529777129</v>
+        <v>0.4044143152542</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.978260869565217</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.93</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K4">
-        <v>-0.160197368421053</v>
+        <v>0.0220755494505495</v>
       </c>
       <c r="L4">
-        <v>-0.464677623532062</v>
+        <v>-0.128858699934087</v>
       </c>
       <c r="M4">
-        <v>0.0148843799726505</v>
+        <v>0.161456957781538</v>
       </c>
       <c r="N4">
-        <v>-17.2255234861347</v>
+        <v>2.70202563654216</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1805181.656</v>
@@ -823,19 +817,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,37 +849,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.999840460184043</v>
+        <v>0.969632994596187</v>
       </c>
       <c r="G5">
-        <v>0.0652173913043478</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H5">
-        <v>0.826086956521739</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1593.5</v>
+        <v>770</v>
       </c>
       <c r="K5">
-        <v>-683.772921108742</v>
+        <v>-201.599025974026</v>
       </c>
       <c r="L5">
-        <v>-1167.71642870527</v>
+        <v>-475.066813657686</v>
       </c>
       <c r="M5">
-        <v>-337.095751525604</v>
+        <v>-14.9086993901744</v>
       </c>
       <c r="N5">
-        <v>-42.9101299723089</v>
+        <v>-26.1816916849384</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5">
         <v>1805181.656</v>
@@ -894,19 +888,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -926,7 +920,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.996367355108603</v>
+        <v>0.786774734224604</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -938,26 +932,26 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.30782388989393</v>
+        <v>1.74825174825175</v>
       </c>
       <c r="K6">
-        <v>-0.903706733115091</v>
+        <v>-0.170693751460746</v>
       </c>
       <c r="L6">
-        <v>-1.77568419917728</v>
+        <v>-0.6453595561794661</v>
       </c>
       <c r="M6">
-        <v>-0.343948322516739</v>
+        <v>0.206094473610894</v>
       </c>
       <c r="N6">
-        <v>-39.1583923310815</v>
+        <v>-9.76368258355469</v>
       </c>
       <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
       <c r="Q6">
         <v>1805181.656</v>
       </c>
@@ -965,19 +959,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,34 +991,34 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.999948802507863</v>
+        <v>0.999949012814748</v>
       </c>
       <c r="G7">
-        <v>0.0217391304347826</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H7">
-        <v>0.760869565217391</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="K7">
-        <v>-0.0123983944954128</v>
+        <v>-0.0114323836276083</v>
       </c>
       <c r="L7">
-        <v>-0.0179157738439249</v>
+        <v>-0.0164774436090226</v>
       </c>
       <c r="M7">
-        <v>-0.0046737127355724</v>
+        <v>-0.0051460761773037</v>
       </c>
       <c r="N7">
-        <v>-51.6599770642202</v>
+        <v>-54.4399220362302</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
         <v>42</v>
@@ -1036,19 +1030,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,34 +1062,34 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.927664931835717</v>
+        <v>0.978952110797435</v>
       </c>
       <c r="G8">
-        <v>0.0652173913043478</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H8">
-        <v>0.934782608695652</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.2185</v>
+        <v>0.22</v>
       </c>
       <c r="K8">
-        <v>-0.0427799467613132</v>
+        <v>-0.0596958232445521</v>
       </c>
       <c r="L8">
-        <v>-0.08050352084459469</v>
+        <v>-0.14189830500476</v>
       </c>
       <c r="M8">
-        <v>0.0026293201481946</v>
+        <v>-0.0101615291199878</v>
       </c>
       <c r="N8">
-        <v>-19.5789230028893</v>
+        <v>-27.13446511116</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
         <v>41</v>
@@ -1107,19 +1101,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1139,37 +1133,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>1.28395055930541E-05</v>
+        <v>0.036892500012893</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.777777777777778</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.1</v>
+        <v>6.975</v>
       </c>
       <c r="K9">
-        <v>-0.153914722572509</v>
+        <v>-0.0564637681159421</v>
       </c>
       <c r="L9">
-        <v>-0.20392709196216</v>
+        <v>-0.110267315580971</v>
       </c>
       <c r="M9">
-        <v>-0.0997488588144094</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-2.16781299397901</v>
+        <v>-0.809516388759026</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q9">
         <v>1805181.656</v>
@@ -1178,16 +1172,16 @@
         <v>5545497.329</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.950268071490985</v>
+        <v>0.528930320271179</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1219,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.0285</v>
+        <v>4.772</v>
       </c>
       <c r="K10">
-        <v>-1.183</v>
+        <v>-0.0735243506493506</v>
       </c>
       <c r="L10">
-        <v>-2.66635253165665</v>
+        <v>-0.964861387924309</v>
       </c>
       <c r="M10">
-        <v>-0.0488955870795169</v>
+        <v>0.77717135484217</v>
       </c>
       <c r="N10">
-        <v>-19.6234552542092</v>
+        <v>-1.54074498426971</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1805181.656</v>
@@ -1246,19 +1240,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" t="s">
         <v>53</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.97661139615343</v>
+        <v>0.677127451477181</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1290,26 +1284,26 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.369999999999999</v>
+        <v>7.44</v>
       </c>
       <c r="K11">
-        <v>-1.71085508241758</v>
+        <v>-0.330212215320911</v>
       </c>
       <c r="L11">
-        <v>-3.80800200128079</v>
+        <v>-1.45036639549927</v>
       </c>
       <c r="M11">
-        <v>-0.302591369361692</v>
+        <v>0.675299430701327</v>
       </c>
       <c r="N11">
-        <v>-20.4403235653236</v>
+        <v>-4.4383362274316</v>
       </c>
       <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11">
         <v>1805181.656</v>
       </c>
@@ -1317,19 +1311,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" t="s">
         <v>53</v>
-      </c>
-      <c r="W11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,37 +1343,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.897731728491463</v>
+        <v>0.609589168959188</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.765</v>
+        <v>1.54</v>
       </c>
       <c r="K12">
-        <v>-0.233837301587302</v>
+        <v>-0.048313492063492</v>
       </c>
       <c r="L12">
-        <v>-0.687587324052629</v>
+        <v>-0.289793766988493</v>
       </c>
       <c r="M12">
-        <v>0.0602633952928627</v>
+        <v>0.168339561745302</v>
       </c>
       <c r="N12">
-        <v>-13.2485723278924</v>
+        <v>-3.1372397443826</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>1805181.656</v>
@@ -1388,19 +1382,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" t="s">
         <v>53</v>
-      </c>
-      <c r="W12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,34 +1414,34 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.998572198815205</v>
+        <v>0.990839421432604</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.934782608695652</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.55</v>
+        <v>16.8</v>
       </c>
       <c r="K13">
-        <v>-4.45889610389611</v>
+        <v>-3.06725386100386</v>
       </c>
       <c r="L13">
-        <v>-7.43653076417972</v>
+        <v>-5.09622146971335</v>
       </c>
       <c r="M13">
-        <v>-2.00947660374248</v>
+        <v>-0.964304000865978</v>
       </c>
       <c r="N13">
-        <v>-21.6977912598351</v>
+        <v>-18.2574634583563</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -1459,19 +1453,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0.479110657809479</v>
+        <v>0.863100706227984</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.72972972972973</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1506,23 +1500,23 @@
         <v>0.17</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.0080186608122941</v>
       </c>
       <c r="L14">
-        <v>-0.0105363172474303</v>
+        <v>-0.0043078352932006</v>
       </c>
       <c r="M14">
-        <v>0.0111100032035715</v>
+        <v>0.0185935459931042</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.71685930134952</v>
       </c>
       <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
       <c r="Q14">
         <v>1805181.656</v>
       </c>
@@ -1530,19 +1524,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
         <v>52</v>
-      </c>
-      <c r="V14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,37 +1556,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.513183822729284</v>
+        <v>0.042076834615567</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.938775510204082</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="K15">
-        <v>0.001991548527808</v>
+        <v>-0.220755494505494</v>
       </c>
       <c r="L15">
-        <v>-0.188591797538703</v>
+        <v>-0.422674241376981</v>
       </c>
       <c r="M15">
-        <v>0.224882868689678</v>
+        <v>-0.0179655564007921</v>
       </c>
       <c r="N15">
-        <v>0.0470815254800952</v>
+        <v>-5.18205386163133</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q15">
         <v>1805181.656</v>
@@ -1601,19 +1595,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
         <v>53</v>
-      </c>
-      <c r="W15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,34 +1627,34 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.999533705569995</v>
+        <v>0.993205182054392</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.981132075471698</v>
+        <v>0.97979797979798</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="K16">
-        <v>-0.112096548188653</v>
+        <v>-0.0790987261146497</v>
       </c>
       <c r="L16">
-        <v>-0.204488276909306</v>
+        <v>-0.146292674650951</v>
       </c>
       <c r="M16">
-        <v>-0.0465850000485826</v>
+        <v>-0.0197823075320718</v>
       </c>
       <c r="N16">
-        <v>-7.78448251310093</v>
+        <v>-6.27767667576585</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -1672,19 +1666,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,38 +1698,38 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.730514735038573</v>
+        <v>0.836389973013228</v>
       </c>
       <c r="G17">
-        <v>0.0471698113207547</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="H17">
-        <v>0.716981132075472</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K17">
-        <v>-32.8396603396603</v>
+        <v>-50.0544879898863</v>
       </c>
       <c r="L17">
-        <v>-147.216542861606</v>
+        <v>-173.556308413192</v>
       </c>
       <c r="M17">
-        <v>46.8950899719353</v>
+        <v>24.3838256668041</v>
       </c>
       <c r="N17">
-        <v>-1.93174472586237</v>
+        <v>-3.33696586599242</v>
       </c>
       <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
         <v>38</v>
       </c>
-      <c r="P17" t="s">
-        <v>44</v>
-      </c>
       <c r="Q17">
         <v>1805181.656</v>
       </c>
@@ -1743,19 +1737,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>0.868754601578011</v>
+        <v>0.855613657009708</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1787,26 +1781,26 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.59903974996676</v>
+        <v>3.10005988645584</v>
       </c>
       <c r="K18">
-        <v>-0.136694589857849</v>
+        <v>-0.09337806020019419</v>
       </c>
       <c r="L18">
-        <v>-0.326209563315574</v>
+        <v>-0.275557175931251</v>
       </c>
       <c r="M18">
-        <v>0.0517273215282717</v>
+        <v>0.0540976566480645</v>
       </c>
       <c r="N18">
-        <v>-3.79808502696063</v>
+        <v>-3.0121373012232</v>
       </c>
       <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" t="s">
         <v>38</v>
       </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
       <c r="Q18">
         <v>1805181.656</v>
       </c>
@@ -1814,19 +1808,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1846,34 +1840,34 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.999945583594478</v>
+        <v>0.99916981045954</v>
       </c>
       <c r="G19">
-        <v>0.0188679245283019</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="H19">
-        <v>0.660377358490566</v>
+        <v>0.656565656565657</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="K19">
-        <v>-0.0036403654485049</v>
+        <v>-0.0027810913705583</v>
       </c>
       <c r="L19">
-        <v>-0.0060672757475083</v>
+        <v>-0.0048087646265137</v>
       </c>
       <c r="M19">
-        <v>-0.0019986421569668</v>
+        <v>-0.0011848703967886</v>
       </c>
       <c r="N19">
-        <v>-10.7069572014852</v>
+        <v>-9.589970243304739</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
@@ -1885,19 +1879,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,37 +1911,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.948385405141955</v>
+        <v>0.9962213280191931</v>
       </c>
       <c r="G20">
-        <v>0.0471698113207547</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="H20">
-        <v>0.886792452830189</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.2055</v>
+        <v>0.207</v>
       </c>
       <c r="K20">
-        <v>-0.0079661941112322</v>
+        <v>-0.0152879890809827</v>
       </c>
       <c r="L20">
-        <v>-0.0188718530143349</v>
+        <v>-0.0254269236201284</v>
       </c>
       <c r="M20">
-        <v>-2.2705315799762E-05</v>
+        <v>-0.0052909374110747</v>
       </c>
       <c r="N20">
-        <v>-3.87649348478457</v>
+        <v>-7.38550197148923</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1805181.656</v>
@@ -1956,19 +1950,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1988,37 +1982,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.135896944139625</v>
+        <v>0.012194448467945</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.676470588235294</v>
+        <v>0.697916666666667</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.17</v>
+        <v>7.135</v>
       </c>
       <c r="K21">
-        <v>-0.0127264808362371</v>
+        <v>-0.0270751821985289</v>
       </c>
       <c r="L21">
-        <v>-0.0308713936869189</v>
+        <v>-0.0488373636980862</v>
       </c>
       <c r="M21">
-        <v>0.0059104898711586</v>
+        <v>-0.0073808810260455</v>
       </c>
       <c r="N21">
-        <v>-0.177496245972624</v>
+        <v>-0.379469967743922</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q21">
         <v>1805181.656</v>
@@ -2027,16 +2021,16 @@
         <v>5545497.329</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,7 +2050,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.8856427444859371</v>
+        <v>0.818387714957991</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2068,26 +2062,26 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.484999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="K22">
-        <v>-0.321098901098901</v>
+        <v>-0.208714285714286</v>
       </c>
       <c r="L22">
-        <v>-0.863210636198801</v>
+        <v>-0.716396214637341</v>
       </c>
       <c r="M22">
-        <v>0.123915291257107</v>
+        <v>0.122550328713798</v>
       </c>
       <c r="N22">
-        <v>-3.78431232880261</v>
+        <v>-2.51160391954616</v>
       </c>
       <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
         <v>38</v>
       </c>
-      <c r="P22" t="s">
-        <v>44</v>
-      </c>
       <c r="Q22">
         <v>1805181.656</v>
       </c>
@@ -2095,19 +2089,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
         <v>53</v>
-      </c>
-      <c r="W22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,37 +2121,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.976487044756599</v>
+        <v>0.9602444804910369</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.971698113207547</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="K23">
-        <v>-0.631460418562329</v>
+        <v>-0.44469562243502</v>
       </c>
       <c r="L23">
-        <v>-1.24513564099938</v>
+        <v>-1.05087800919958</v>
       </c>
       <c r="M23">
-        <v>-0.102123404656608</v>
+        <v>-0.0447556267524254</v>
       </c>
       <c r="N23">
-        <v>-5.21868114514322</v>
+        <v>-3.90083879328965</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q23">
         <v>1805181.656</v>
@@ -2166,19 +2160,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" t="s">
         <v>53</v>
-      </c>
-      <c r="W23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,37 +2192,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.9870197496969489</v>
+        <v>0.977959115860731</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.981132075471698</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.465</v>
+        <v>2.11</v>
       </c>
       <c r="K24">
-        <v>-0.100935597189696</v>
+        <v>-0.087589928057554</v>
       </c>
       <c r="L24">
-        <v>-0.193065685049775</v>
+        <v>-0.171299212531316</v>
       </c>
       <c r="M24">
-        <v>-0.0386286513988284</v>
+        <v>-0.0151363148217092</v>
       </c>
       <c r="N24">
-        <v>-4.0947503930911</v>
+        <v>-4.15118142452862</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>1805181.656</v>
@@ -2237,19 +2231,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
         <v>53</v>
-      </c>
-      <c r="W24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,37 +2263,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.955511539292767</v>
+        <v>0.99643450418782</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.933962264150943</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="K25">
-        <v>-0.889095394736842</v>
+        <v>-1.31945812807882</v>
       </c>
       <c r="L25">
-        <v>-1.89201080471918</v>
+        <v>-2.24472577282225</v>
       </c>
       <c r="M25">
-        <v>-0.0251315888796423</v>
+        <v>-0.535909892484018</v>
       </c>
       <c r="N25">
-        <v>-4.07841924191212</v>
+        <v>-6.40513654407193</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>1805181.656</v>
@@ -2308,19 +2302,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,37 +2334,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.122248428692207</v>
+        <v>0.187992608317527</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.666666666666667</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.19</v>
+        <v>0.1925</v>
       </c>
       <c r="K26">
-        <v>-0.0048217821782178</v>
+        <v>-0.0036573964677009</v>
       </c>
       <c r="L26">
-        <v>-0.0137827556249263</v>
+        <v>-0.0127282583725277</v>
       </c>
       <c r="M26">
-        <v>0.0019233859890609</v>
+        <v>0.0031305333735959</v>
       </c>
       <c r="N26">
-        <v>-2.53778009379885</v>
+        <v>-1.89994621698749</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1805181.656</v>
@@ -2379,19 +2373,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U26" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" t="s">
         <v>52</v>
-      </c>
-      <c r="V26" t="s">
-        <v>53</v>
-      </c>
-      <c r="W26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,37 +2405,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.0046141587670289</v>
+        <v>0.019698702383378</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.918367346938776</v>
+        <v>0.921428571428571</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.61</v>
+        <v>4.075</v>
       </c>
       <c r="K27">
-        <v>-0.143825549450549</v>
+        <v>-0.116432641661396</v>
       </c>
       <c r="L27">
-        <v>-0.258148580961149</v>
+        <v>-0.22715325135109</v>
       </c>
       <c r="M27">
-        <v>-0.0527885193012608</v>
+        <v>-0.0201654495590105</v>
       </c>
       <c r="N27">
-        <v>-3.11986007484923</v>
+        <v>-2.85724274015696</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q27">
         <v>1805181.656</v>
@@ -2450,19 +2444,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" t="s">
         <v>53</v>
-      </c>
-      <c r="W27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,37 +2476,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0042348502373221</v>
+        <v>0.0221273486868694</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.968944099378882</v>
+        <v>0.967532467532468</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.908</v>
+        <v>0.986</v>
       </c>
       <c r="K28">
-        <v>0.0342108796444904</v>
+        <v>0.0267582417582418</v>
       </c>
       <c r="L28">
-        <v>0.0120831886066139</v>
+        <v>0.004882736174571</v>
       </c>
       <c r="M28">
-        <v>0.0698384588120267</v>
+        <v>0.056325873020793</v>
       </c>
       <c r="N28">
-        <v>3.76771802252097</v>
+        <v>2.71381762253973</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1805181.656</v>
@@ -2521,19 +2515,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,37 +2547,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.231512305123194</v>
+        <v>0.2960135324785</v>
       </c>
       <c r="G29">
-        <v>0.0372670807453416</v>
+        <v>0.038961038961039</v>
       </c>
       <c r="H29">
-        <v>0.757763975155279</v>
+        <v>0.75974025974026</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>1400</v>
+        <v>1321</v>
       </c>
       <c r="K29">
-        <v>13.7227187375548</v>
+        <v>9.74310784939374</v>
       </c>
       <c r="L29">
-        <v>-24.8408936863072</v>
+        <v>-29.7856902265874</v>
       </c>
       <c r="M29">
-        <v>66.2290383192703</v>
+        <v>56.4964421564097</v>
       </c>
       <c r="N29">
-        <v>0.9801941955396311</v>
+        <v>0.737555476865537</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1805181.656</v>
@@ -2592,19 +2586,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2618,43 +2612,43 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
       </c>
       <c r="F30">
-        <v>3.10367125181354E-05</v>
+        <v>0.0008393917631716</v>
       </c>
       <c r="G30">
-        <v>0.0397350993377483</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H30">
-        <v>0.966887417218543</v>
+        <v>0.972413793103448</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>2.00110628209031</v>
+        <v>2.48360137239788</v>
       </c>
       <c r="K30">
-        <v>0.149677064713728</v>
+        <v>0.110583166913099</v>
       </c>
       <c r="L30">
-        <v>0.0808541612099999</v>
+        <v>0.0496691260112832</v>
       </c>
       <c r="M30">
-        <v>0.244907319560657</v>
+        <v>0.203925575598385</v>
       </c>
       <c r="N30">
-        <v>7.4797158978172</v>
+        <v>4.45253284774653</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1805181.656</v>
@@ -2663,19 +2657,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,13 +2689,13 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.240389977823795</v>
+        <v>0.29756508592994</v>
       </c>
       <c r="G31">
-        <v>0.07947019867549671</v>
+        <v>0.07792207792207791</v>
       </c>
       <c r="H31">
-        <v>0.529801324503311</v>
+        <v>0.525974025974026</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2710,22 +2704,22 @@
         <v>0.027</v>
       </c>
       <c r="K31">
-        <v>0.0003432800751879</v>
+        <v>0.0002087142857142</v>
       </c>
       <c r="L31">
-        <v>-0.000472069760482</v>
+        <v>-0.0005729727944852</v>
       </c>
       <c r="M31">
-        <v>0.0012060710881749</v>
+        <v>0.0010435714285714</v>
       </c>
       <c r="N31">
-        <v>1.27140768588137</v>
+        <v>0.773015873015873</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1805181.656</v>
@@ -2734,19 +2728,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2766,38 +2760,38 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.7609508584185199</v>
+        <v>0.784905101242298</v>
       </c>
       <c r="G32">
-        <v>0.0860927152317881</v>
+        <v>0.0844155844155844</v>
       </c>
       <c r="H32">
-        <v>0.8344370860927151</v>
+        <v>0.831168831168831</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.217</v>
+        <v>0.21</v>
       </c>
       <c r="K32">
-        <v>-0.0014717032967033</v>
+        <v>-0.0017629463072404</v>
       </c>
       <c r="L32">
-        <v>-0.0060326715461526</v>
+        <v>-0.0062105378524929</v>
       </c>
       <c r="M32">
-        <v>0.0015024645940071</v>
+        <v>0.0014993617902388</v>
       </c>
       <c r="N32">
-        <v>-0.678204284195068</v>
+        <v>-0.8394982415430839</v>
       </c>
       <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" t="s">
         <v>38</v>
       </c>
-      <c r="P32" t="s">
-        <v>44</v>
-      </c>
       <c r="Q32">
         <v>1805181.656</v>
       </c>
@@ -2805,19 +2799,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2837,13 +2831,13 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.8495582399278681</v>
+        <v>0.178815768977407</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.57051282051282</v>
+        <v>0.593333333333333</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2852,22 +2846,22 @@
         <v>7.135</v>
       </c>
       <c r="K33">
-        <v>0.0069089342365765</v>
+        <v>-0.0065060562878517</v>
       </c>
       <c r="L33">
-        <v>-0.0042563356622148</v>
+        <v>-0.0181639497471008</v>
       </c>
       <c r="M33">
-        <v>0.018974025974026</v>
+        <v>0.0049537121344936</v>
       </c>
       <c r="N33">
-        <v>0.0968315940655441</v>
+        <v>-0.0911850916307187</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1805181.656</v>
@@ -2876,16 +2870,16 @@
         <v>5545497.329</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,37 +2899,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>1.3995969491754E-05</v>
+        <v>0.0003675957471569</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.9937888198757761</v>
+        <v>0.993506493506494</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>5.47</v>
+        <v>6.63</v>
       </c>
       <c r="K34">
-        <v>0.379252572037714</v>
+        <v>0.303381195819536</v>
       </c>
       <c r="L34">
-        <v>0.218351701814055</v>
+        <v>0.16729356443628</v>
       </c>
       <c r="M34">
-        <v>0.589792558915353</v>
+        <v>0.507448373173373</v>
       </c>
       <c r="N34">
-        <v>6.93331941568033</v>
+        <v>4.57588530647867</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q34">
         <v>1805181.656</v>
@@ -2944,19 +2938,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34" t="s">
         <v>53</v>
-      </c>
-      <c r="W34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,37 +2970,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.000621461270347</v>
+        <v>0.0099948672583589</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.950310559006211</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>9.32</v>
+        <v>9.9</v>
       </c>
       <c r="K35">
-        <v>0.322292618539953</v>
+        <v>0.22423492667741</v>
       </c>
       <c r="L35">
-        <v>0.154009214478869</v>
+        <v>0.0677002311054849</v>
       </c>
       <c r="M35">
-        <v>0.602060439560439</v>
+        <v>0.484563935572196</v>
       </c>
       <c r="N35">
-        <v>3.45807530622268</v>
+        <v>2.26499925936778</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>1805181.656</v>
@@ -3015,19 +3009,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V35" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" t="s">
         <v>53</v>
-      </c>
-      <c r="W35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3047,37 +3041,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0013631269205919</v>
+        <v>0.0099948672583589</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.975155279503106</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K36">
-        <v>0.0622191595222306</v>
+        <v>0.0464229049872026</v>
       </c>
       <c r="L36">
-        <v>0.0313448255281886</v>
+        <v>0.012537076799219</v>
       </c>
       <c r="M36">
-        <v>0.112494279851844</v>
+        <v>0.0868984069024142</v>
       </c>
       <c r="N36">
-        <v>3.63854734048132</v>
+        <v>2.65273742784015</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1805181.656</v>
@@ -3086,19 +3080,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" t="s">
         <v>53</v>
-      </c>
-      <c r="W36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3118,37 +3112,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.395517439415098</v>
+        <v>0.389766601299821</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.894409937888199</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>20.3</v>
+        <v>19.65</v>
       </c>
       <c r="K37">
-        <v>0.113511075849438</v>
+        <v>0.0684753697798143</v>
       </c>
       <c r="L37">
-        <v>-0.474992129503964</v>
+        <v>-0.424615282423537</v>
       </c>
       <c r="M37">
-        <v>0.546048671603931</v>
+        <v>0.622163035726838</v>
       </c>
       <c r="N37">
-        <v>0.55916786132728</v>
+        <v>0.348475164273864</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q37">
         <v>1805181.656</v>
@@ -3157,19 +3151,19 @@
         <v>5545497.329</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
